--- a/src/models/baselines/SVM/results/synthetic/centrality/in-degree/metrics.xlsx
+++ b/src/models/baselines/SVM/results/synthetic/centrality/in-degree/metrics.xlsx
@@ -456,13 +456,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0.9949494949494949</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.9949494949494949</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0.9999234771962046</v>
       </c>
     </row>
     <row r="3">
@@ -512,13 +512,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9949494949494949</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9949494949494949</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999617385981022</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -540,10 +540,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0.9949494949494949</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0.9949494949494949</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -554,13 +554,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9898989898989899</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9898989898989899</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999234771962046</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -574,7 +574,7 @@
         <v>0.9949494949494949</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0.9996939087848179</v>
       </c>
     </row>
     <row r="11">
@@ -582,13 +582,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9949494949494949</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9949494949494949</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999617385981022</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -634,13 +634,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9969696969696968</v>
+        <v>0.997979797979798</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9969696969696968</v>
+        <v>0.997979797979798</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999846954392411</v>
+        <v>0.9999617385981023</v>
       </c>
     </row>
     <row r="3">
@@ -650,13 +650,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.003531342923131822</v>
+        <v>0.002608069593405685</v>
       </c>
       <c r="C3" t="n">
-        <v>0.003531342923131822</v>
+        <v>0.002608069593405685</v>
       </c>
       <c r="D3" t="n">
-        <v>2.675259790249341e-05</v>
+        <v>9.713005185520719e-05</v>
       </c>
     </row>
   </sheetData>
